--- a/survey.xlsx
+++ b/survey.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>test1</t>
   </si>
@@ -93,6 +93,42 @@
   </si>
   <si>
     <t>http://localhost/web_survey/survey_images/survey_8/1648469649user-img.png.png</t>
+  </si>
+  <si>
+    <t>1 State Route 27</t>
+  </si>
+  <si>
+    <t>2022-03-08</t>
+  </si>
+  <si>
+    <t>http://localhost/web_survey/survey_images/survey_9/1648533100login-bg.png.png</t>
+  </si>
+  <si>
+    <t>http://localhost/web_survey/survey_images/survey_9/1648533100logo.png.png</t>
+  </si>
+  <si>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>http://localhost/web_survey/survey_images/survey_10/1648533229logo.png.png</t>
+  </si>
+  <si>
+    <t>http://localhost/web_survey/survey_images/survey_10/1648533229user-img.png.png</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>http://localhost/web_survey/survey_images/survey_11/1648533464logo.png</t>
+  </si>
+  <si>
+    <t>http://localhost/web_survey/survey_images/survey_11/1648533464user-img.png</t>
   </si>
 </sst>
 </file>
@@ -428,7 +464,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +636,84 @@
       </c>
       <c r="H8" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
